--- a/db/queries/predicted/SBODemoUS-Business Partners-N1-N1-CodeS-queries-predicted.xlsx
+++ b/db/queries/predicted/SBODemoUS-Business Partners-N1-N1-CodeS-queries-predicted.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,11 +434,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0.1</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Unnamed: 0</t>
@@ -502,16 +497,11 @@
       <c r="N1" s="1" t="inlineStr">
         <is>
           <t>tab_naturalness_modifier</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>query_stats</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
@@ -576,14 +566,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'groupname'}, {'select element': '1'}, {'function': 'count'}, {'table source item': '1'}, {'table': 'ocrg'}, {'join': '1'}, {'table source item': '1'}, {'table': 'ocrd'}, {'predicate': '1'}, {'column': 'groupcode'}, {'column': 'groupcode'}, {'group by': '1'}, {'column': 'groupname'}]</t>
-        </is>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
@@ -648,14 +633,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'name'}, {'select element': '1'}, {'column': 'address'}, {'select element': '1'}, {'column': 'cellolar'}, {'select element': '1'}, {'column': 'e_maill'}, {'table source item': '1'}, {'table': 'ocpr'}, {'where': '1'}, {'logical operator': 'or'}, {'predicate': '1'}, {'column': 'position'}, {'predicate': '1'}, {'column': 'position'}]</t>
-        </is>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
@@ -719,14 +699,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'commission'}, {'table source item': '1'}, {'table': 'oslp'}, {'where': '1'}, {'predicate': '1'}, {'column': 'slpname'}]</t>
-        </is>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
@@ -792,14 +767,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'slpname'}, {'table source item': '1'}, {'table': 'oslp'}, {'join': '1'}, {'table source item': '1'}, {'table': 'ocog'}, {'predicate': '1'}, {'column': 'groupcode'}, {'column': 'groupcode'}, {'where': '1'}, {'predicate': '1'}, {'column': 'groupname'}]</t>
-        </is>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
@@ -864,14 +834,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'slpname'}, {'select element': '1'}, {'column': 'mobil'}, {'select element': '1'}, {'column': 'email'}, {'table source item': '1'}, {'table': 'oslp'}, {'join': '1'}, {'table source item': '1'}, {'table': 'ocog'}, {'predicate': '1'}, {'column': 'groupcode'}, {'column': 'groupcode'}, {'where': '1'}, {'predicate': '1'}, {'column': 'groupname'}]</t>
-        </is>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
@@ -935,14 +900,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'pymcode'}, {'select element': '1'}, {'column': 'taxcode'}, {'table source item': '1'}, {'table': 'ocrd'}, {'join': '1'}, {'table source item': '1'}, {'table': 'crd1'}, {'predicate': '1'}, {'column': 'cardcode'}, {'column': 'cardcode'}, {'where': '1'}, {'predicate': '1'}, {'column': 'cdpnum'}]</t>
-        </is>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
@@ -1006,14 +966,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'clgcode'}, {'select element': '1'}, {'column': 'cntctdate'}, {'select element': '1'}, {'column': 'cntcttime'}, {'select element': '1'}, {'column': 'details'}, {'table source item': '1'}, {'table': 'oclg'}, {'where': '1'}, {'predicate': '1'}, {'column': 'date'}]</t>
-        </is>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
@@ -1078,14 +1033,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'bankcode'}, {'select element': '1'}, {'column': 'country'}, {'select element': '1'}, {'column': 'account'}, {'select element': '1'}, {'column': 'branch'}, {'select element': '1'}, {'column': 'city'}, {'table source item': '1'}, {'table': 'ocrd'}, {'join': '1'}, {'table source item': '1'}, {'table': 'ocrb'}, {'predicate': '1'}, {'column': 'cardcode'}, {'column': 'cardcode'}, {'where': '1'}, {'predicate': '1'}, {'column': 'cardname'}]</t>
-        </is>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
@@ -1149,14 +1099,9 @@
           <t>N1</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'balance'}, {'table source item': '1'}, {'table': 'ocrd'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'currency'}, {'predicate': '1'}, {'column': 'pymcode'}]</t>
-        </is>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
@@ -1219,11 +1164,6 @@
       <c r="N11" t="inlineStr">
         <is>
           <t>N1</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>[{'select element': '1'}, {'column': 'e_mail'}, {'select element': '1'}, {'column': 'lictradnum'}, {'table source item': '1'}, {'table': 'tgg1'}, {'join': '1'}, {'table source item': '1'}, {'table': 'otgg'}, {'predicate': '1'}, {'column': 'targetcode'}, {'column': 'targetcode'}, {'where': '1'}, {'logical operator': 'and'}, {'predicate': '1'}, {'column': 'position'}, {'predicate': '1'}, {'column': 'targettype'}]</t>
         </is>
       </c>
     </row>
